--- a/data/0. old data/0. raw/2016/companies/baxter.xlsx
+++ b/data/0. old data/0. raw/2016/companies/baxter.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="268">
   <si>
     <t>name</t>
   </si>
@@ -821,6 +821,9 @@
   </si>
   <si>
     <t>Bonforte, Giuseppe</t>
+  </si>
+  <si>
+    <t>Schänzlistrasse 25</t>
   </si>
 </sst>
 </file>
@@ -1360,7 +1363,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H79" sqref="H79"/>
+      <selection pane="bottomLeft" activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -4974,7 +4977,7 @@
         <v>162</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>116</v>
+        <v>267</v>
       </c>
       <c r="F94" s="5">
         <v>0</v>
